--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="HeroLevelup" sheetId="1" r:id="rId4"/>
+    <sheet name="HeroLevelup" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -50,33 +53,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,17 +235,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -106,75 +441,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -182,99 +473,371 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -400,7 +963,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -409,7 +972,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,7 +981,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -492,13 +1055,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -518,8 +1080,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -548,8 +1109,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -574,8 +1134,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,8 +1159,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -626,8 +1184,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,8 +1209,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,8 +1234,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,8 +1259,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,8 +1284,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,8 +1309,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,9 +1322,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -787,13 +1345,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -813,8 +1370,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,8 +1395,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,8 +1420,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,8 +1445,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,8 +1470,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,8 +1495,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,8 +1520,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,8 +1545,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,8 +1570,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,8 +1595,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,9 +1608,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1074,8 +1627,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1095,8 +1646,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,8 +1675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,8 +1700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,8 +1725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,8 +1750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,8 +1775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,8 +1800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,8 +1825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,8 +1850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,8 +1875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,9 +1888,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1358,117 +1905,896 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
     <col min="5" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1">
+    <row r="2" ht="47" customHeight="1" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:4">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" ht="16.15" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="D8" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" ht="16.15" customHeight="1" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:4">
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:4">
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:4">
+      <c r="C13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:4">
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:4">
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:4">
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:4">
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:4">
+      <c r="C18" s="5">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:4">
+      <c r="C19" s="5">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:4">
+      <c r="C20" s="5">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:4">
+      <c r="C21" s="5">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:4">
+      <c r="C22" s="5">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:4">
+      <c r="C23" s="5">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:4">
+      <c r="C24" s="5">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:4">
+      <c r="C25" s="5">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:4">
+      <c r="C26" s="5">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:4">
+      <c r="C27" s="5">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:4">
+      <c r="C28" s="5">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9361</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:4">
+      <c r="C29" s="5">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10748</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:4">
+      <c r="C30" s="5">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12267</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:4">
+      <c r="C31" s="5">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13924</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:4">
+      <c r="C32" s="5">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1">
+        <v>15725</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:4">
+      <c r="C33" s="5">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1">
+        <v>17676</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:4">
+      <c r="C34" s="5">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1">
+        <v>19783</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:4">
+      <c r="C35" s="5">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1">
+        <v>22052</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:4">
+      <c r="C36" s="5">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1">
+        <v>24489</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:4">
+      <c r="C37" s="5">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1">
+        <v>27100</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:4">
+      <c r="C38" s="5">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1">
+        <v>29891</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:4">
+      <c r="C39" s="5">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1">
+        <v>32868</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:4">
+      <c r="C40" s="5">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1">
+        <v>36037</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:4">
+      <c r="C41" s="5">
+        <v>35</v>
+      </c>
+      <c r="D41" s="1">
+        <v>39404</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:4">
+      <c r="C42" s="5">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42975</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:4">
+      <c r="C43" s="5">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1">
+        <v>46756</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:4">
+      <c r="C44" s="5">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1">
+        <v>50753</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:4">
+      <c r="C45" s="5">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1">
+        <v>54972</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:4">
+      <c r="C46" s="5">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1">
+        <v>59419</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:4">
+      <c r="C47" s="5">
+        <v>41</v>
+      </c>
+      <c r="D47" s="1">
+        <v>64100</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:4">
+      <c r="C48" s="5">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1">
+        <v>69021</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:4">
+      <c r="C49" s="5">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1">
+        <v>74188</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:4">
+      <c r="C50" s="5">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>79607</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:4">
+      <c r="C51" s="5">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1">
+        <v>85284</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:4">
+      <c r="C52" s="5">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1">
+        <v>91225</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:4">
+      <c r="C53" s="5">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>97436</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:4">
+      <c r="C54" s="5">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1">
+        <v>103923</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:4">
+      <c r="C55" s="5">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1">
+        <v>110692</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:4">
+      <c r="C56" s="5">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1">
+        <v>117749</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:4">
+      <c r="C57" s="5">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1">
+        <v>125100</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:4">
+      <c r="C58" s="5">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1">
+        <v>132751</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:4">
+      <c r="C59" s="5">
+        <v>53</v>
+      </c>
+      <c r="D59" s="1">
+        <v>140708</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:4">
+      <c r="C60" s="5">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1">
+        <v>148977</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:4">
+      <c r="C61" s="5">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1">
+        <v>157564</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:4">
+      <c r="C62" s="5">
+        <v>56</v>
+      </c>
+      <c r="D62" s="1">
+        <v>166475</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:4">
+      <c r="C63" s="5">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1">
+        <v>175716</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:4">
+      <c r="C64" s="5">
+        <v>58</v>
+      </c>
+      <c r="D64" s="1">
+        <v>185293</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:4">
+      <c r="C65" s="5">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1">
+        <v>195212</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:4">
+      <c r="C66" s="5">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1">
+        <v>205479</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:4">
+      <c r="C67" s="5">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1">
+        <v>216100</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:4">
+      <c r="C68" s="5">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1">
+        <v>227081</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:4">
+      <c r="C69" s="5">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1">
+        <v>238428</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:4">
+      <c r="C70" s="5">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1">
+        <v>250147</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:4">
+      <c r="C71" s="5">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1">
+        <v>262244</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:4">
+      <c r="C72" s="5">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1">
+        <v>274725</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:4">
+      <c r="C73" s="5">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1">
+        <v>287596</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:4">
+      <c r="C74" s="5">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1">
+        <v>300863</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:4">
+      <c r="C75" s="5">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1">
+        <v>314532</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:4">
+      <c r="C76" s="5">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1">
+        <v>328609</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:4">
+      <c r="C77" s="5">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1">
+        <v>343100</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:4">
+      <c r="C78" s="5">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1">
+        <v>358011</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:4">
+      <c r="C79" s="5">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1">
+        <v>373348</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:4">
+      <c r="C80" s="5">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1">
+        <v>389117</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:4">
+      <c r="C81" s="5">
+        <v>75</v>
+      </c>
+      <c r="D81" s="1">
+        <v>405324</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:4">
+      <c r="C82" s="5">
+        <v>76</v>
+      </c>
+      <c r="D82" s="1">
+        <v>421975</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:4">
+      <c r="C83" s="5">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1">
+        <v>439076</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:4">
+      <c r="C84" s="5">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1">
+        <v>456633</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:4">
+      <c r="C85" s="5">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1">
+        <v>474652</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:4">
+      <c r="C86" s="5">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1">
+        <v>493139</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:4">
+      <c r="C87" s="5">
+        <v>81</v>
+      </c>
+      <c r="D87" s="1">
+        <v>512100</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:4">
+      <c r="C88" s="5">
+        <v>82</v>
+      </c>
+      <c r="D88" s="1">
+        <v>531541</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:4">
+      <c r="C89" s="5">
+        <v>83</v>
+      </c>
+      <c r="D89" s="1">
+        <v>551468</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:4">
+      <c r="C90" s="5">
+        <v>84</v>
+      </c>
+      <c r="D90" s="1">
+        <v>571887</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:4">
+      <c r="C91" s="5">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1">
+        <v>592804</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:4">
+      <c r="C92" s="5">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1">
+        <v>614225</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:4">
+      <c r="C93" s="5">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1">
+        <v>636156</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:4">
+      <c r="C94" s="5">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1">
+        <v>658603</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:4">
+      <c r="C95" s="5">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1">
+        <v>681572</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:4">
+      <c r="C96" s="5">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1">
+        <v>705069</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:4">
+      <c r="C97" s="5">
+        <v>91</v>
+      </c>
+      <c r="D97" s="1">
+        <v>729100</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:4">
+      <c r="C98" s="5">
+        <v>92</v>
+      </c>
+      <c r="D98" s="1">
+        <v>753671</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:4">
+      <c r="C99" s="5">
+        <v>93</v>
+      </c>
+      <c r="D99" s="1">
+        <v>778788</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:4">
+      <c r="C100" s="5">
+        <v>94</v>
+      </c>
+      <c r="D100" s="1">
+        <v>804457</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:4">
+      <c r="C101" s="5">
+        <v>95</v>
+      </c>
+      <c r="D101" s="1">
+        <v>830684</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:4">
+      <c r="C102" s="5">
+        <v>96</v>
+      </c>
+      <c r="D102" s="1">
+        <v>857475</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:4">
+      <c r="C103" s="5">
+        <v>97</v>
+      </c>
+      <c r="D103" s="1">
+        <v>884836</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:4">
+      <c r="C104" s="5">
+        <v>98</v>
+      </c>
+      <c r="D104" s="1">
+        <v>912773</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:4">
+      <c r="C105" s="5">
+        <v>99</v>
+      </c>
+      <c r="D105" s="1">
+        <v>941292</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:4">
+      <c r="C106" s="5">
+        <v>100</v>
+      </c>
+      <c r="D106" s="1">
+        <v>970399</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -55,8 +55,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -74,22 +74,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -97,7 +81,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -105,8 +88,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,66 +141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,23 +156,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -224,6 +169,61 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -246,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,32 +451,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,16 +480,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,166 +529,174 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -34,10 +34,16 @@
     <t>exp</t>
   </si>
   <si>
+    <t>promoteLimit</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
     <t>品质</t>
+  </si>
+  <si>
+    <t>突破次数限制</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -56,8 +62,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -81,6 +87,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -88,16 +95,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +123,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -125,78 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +163,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +252,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +306,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,145 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +461,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -470,11 +487,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,58 +553,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +564,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,7 +576,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,124 +585,124 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1098,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1658,7 +1664,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1907,19 +1913,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.4583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:4">
@@ -1940,7 +1947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:4">
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1951,40 +1958,50 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -1993,8 +2010,11 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:4">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
@@ -2003,8 +2023,11 @@
       <c r="D8" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:4">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="16.15" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
@@ -2013,8 +2036,11 @@
       <c r="D9" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" ht="14" customHeight="1" spans="1:4">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
@@ -2023,777 +2049,748 @@
       <c r="D10" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:4">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:5">
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:4">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:4">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>316</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:4">
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1">
         <v>443</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:4">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>612</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:4">
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>829</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:4">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="5">
         <v>11</v>
       </c>
       <c r="D17" s="1">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:4">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
       <c r="C18" s="5">
         <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>1431</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
       <c r="C19" s="5">
         <v>13</v>
       </c>
       <c r="D19" s="1">
         <v>1828</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
       <c r="C20" s="5">
         <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>2297</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="5">
         <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>2844</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="5">
         <v>16</v>
       </c>
       <c r="D22" s="1">
         <v>3475</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="5">
         <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>4196</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="5">
         <v>18</v>
       </c>
       <c r="D24" s="1">
         <v>5013</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:5">
       <c r="C25" s="5">
         <v>19</v>
       </c>
       <c r="D25" s="1">
         <v>5932</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:4">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="5">
         <v>20</v>
       </c>
       <c r="D26" s="1">
         <v>6959</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:4">
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="5">
         <v>21</v>
       </c>
       <c r="D27" s="1">
         <v>8100</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:4">
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="5">
         <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>9361</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="5">
         <v>23</v>
       </c>
       <c r="D29" s="1">
         <v>10748</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:4">
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="5">
         <v>24</v>
       </c>
       <c r="D30" s="1">
         <v>12267</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:5">
       <c r="C31" s="5">
         <v>25</v>
       </c>
       <c r="D31" s="1">
         <v>13924</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:5">
       <c r="C32" s="5">
         <v>26</v>
       </c>
       <c r="D32" s="1">
         <v>15725</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:4">
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="5">
         <v>27</v>
       </c>
       <c r="D33" s="1">
         <v>17676</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:4">
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="5">
         <v>28</v>
       </c>
       <c r="D34" s="1">
         <v>19783</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:4">
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="5">
         <v>29</v>
       </c>
       <c r="D35" s="1">
         <v>22052</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:4">
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="5">
         <v>30</v>
       </c>
       <c r="D36" s="1">
         <v>24489</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:4">
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="5">
         <v>31</v>
       </c>
       <c r="D37" s="1">
         <v>27100</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:4">
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="5">
         <v>32</v>
       </c>
       <c r="D38" s="1">
         <v>29891</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:4">
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="5">
         <v>33</v>
       </c>
       <c r="D39" s="1">
         <v>32868</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:4">
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="5">
         <v>34</v>
       </c>
       <c r="D40" s="1">
         <v>36037</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:4">
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
       <c r="C41" s="5">
         <v>35</v>
       </c>
       <c r="D41" s="1">
         <v>39404</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:4">
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
       <c r="C42" s="5">
         <v>36</v>
       </c>
       <c r="D42" s="1">
         <v>42975</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:4">
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
       <c r="C43" s="5">
         <v>37</v>
       </c>
       <c r="D43" s="1">
         <v>46756</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:4">
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:5">
       <c r="C44" s="5">
         <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>50753</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:4">
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:5">
       <c r="C45" s="5">
         <v>39</v>
       </c>
       <c r="D45" s="1">
         <v>54972</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:4">
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
       <c r="C46" s="5">
         <v>40</v>
       </c>
       <c r="D46" s="1">
         <v>59419</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:4">
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:5">
       <c r="C47" s="5">
         <v>41</v>
       </c>
       <c r="D47" s="1">
         <v>64100</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:4">
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
       <c r="C48" s="5">
         <v>42</v>
       </c>
       <c r="D48" s="1">
         <v>69021</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:4">
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
       <c r="C49" s="5">
         <v>43</v>
       </c>
       <c r="D49" s="1">
         <v>74188</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:4">
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:5">
       <c r="C50" s="5">
         <v>44</v>
       </c>
       <c r="D50" s="1">
         <v>79607</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:4">
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:5">
       <c r="C51" s="5">
         <v>45</v>
       </c>
       <c r="D51" s="1">
         <v>85284</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:4">
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:5">
       <c r="C52" s="5">
         <v>46</v>
       </c>
       <c r="D52" s="1">
         <v>91225</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:4">
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:5">
       <c r="C53" s="5">
         <v>47</v>
       </c>
       <c r="D53" s="1">
         <v>97436</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:4">
+      <c r="E53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:5">
       <c r="C54" s="5">
         <v>48</v>
       </c>
       <c r="D54" s="1">
         <v>103923</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:4">
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:5">
       <c r="C55" s="5">
         <v>49</v>
       </c>
       <c r="D55" s="1">
         <v>110692</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:4">
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:5">
       <c r="C56" s="5">
         <v>50</v>
       </c>
       <c r="D56" s="1">
         <v>117749</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:4">
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:5">
       <c r="C57" s="5">
         <v>51</v>
       </c>
       <c r="D57" s="1">
         <v>125100</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:4">
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:5">
       <c r="C58" s="5">
         <v>52</v>
       </c>
       <c r="D58" s="1">
         <v>132751</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:4">
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
       <c r="C59" s="5">
         <v>53</v>
       </c>
       <c r="D59" s="1">
         <v>140708</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:4">
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:5">
       <c r="C60" s="5">
         <v>54</v>
       </c>
       <c r="D60" s="1">
         <v>148977</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:4">
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:5">
       <c r="C61" s="5">
         <v>55</v>
       </c>
       <c r="D61" s="1">
         <v>157564</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:4">
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:5">
       <c r="C62" s="5">
         <v>56</v>
       </c>
       <c r="D62" s="1">
         <v>166475</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:4">
+      <c r="E62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:5">
       <c r="C63" s="5">
         <v>57</v>
       </c>
       <c r="D63" s="1">
         <v>175716</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:4">
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:5">
       <c r="C64" s="5">
         <v>58</v>
       </c>
       <c r="D64" s="1">
         <v>185293</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:4">
+      <c r="E64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:5">
       <c r="C65" s="5">
         <v>59</v>
       </c>
       <c r="D65" s="1">
         <v>195212</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:4">
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:5">
       <c r="C66" s="5">
         <v>60</v>
       </c>
       <c r="D66" s="1">
         <v>205479</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:4">
-      <c r="C67" s="5">
-        <v>61</v>
-      </c>
-      <c r="D67" s="1">
-        <v>216100</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:4">
-      <c r="C68" s="5">
-        <v>62</v>
-      </c>
-      <c r="D68" s="1">
-        <v>227081</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:4">
-      <c r="C69" s="5">
-        <v>63</v>
-      </c>
-      <c r="D69" s="1">
-        <v>238428</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:4">
-      <c r="C70" s="5">
-        <v>64</v>
-      </c>
-      <c r="D70" s="1">
-        <v>250147</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:4">
-      <c r="C71" s="5">
-        <v>65</v>
-      </c>
-      <c r="D71" s="1">
-        <v>262244</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:4">
-      <c r="C72" s="5">
-        <v>66</v>
-      </c>
-      <c r="D72" s="1">
-        <v>274725</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:4">
-      <c r="C73" s="5">
-        <v>67</v>
-      </c>
-      <c r="D73" s="1">
-        <v>287596</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:4">
-      <c r="C74" s="5">
-        <v>68</v>
-      </c>
-      <c r="D74" s="1">
-        <v>300863</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:4">
-      <c r="C75" s="5">
-        <v>69</v>
-      </c>
-      <c r="D75" s="1">
-        <v>314532</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:4">
-      <c r="C76" s="5">
-        <v>70</v>
-      </c>
-      <c r="D76" s="1">
-        <v>328609</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:4">
-      <c r="C77" s="5">
-        <v>71</v>
-      </c>
-      <c r="D77" s="1">
-        <v>343100</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:4">
-      <c r="C78" s="5">
-        <v>72</v>
-      </c>
-      <c r="D78" s="1">
-        <v>358011</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:4">
-      <c r="C79" s="5">
-        <v>73</v>
-      </c>
-      <c r="D79" s="1">
-        <v>373348</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:4">
-      <c r="C80" s="5">
-        <v>74</v>
-      </c>
-      <c r="D80" s="1">
-        <v>389117</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:4">
-      <c r="C81" s="5">
-        <v>75</v>
-      </c>
-      <c r="D81" s="1">
-        <v>405324</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:4">
-      <c r="C82" s="5">
-        <v>76</v>
-      </c>
-      <c r="D82" s="1">
-        <v>421975</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:4">
-      <c r="C83" s="5">
-        <v>77</v>
-      </c>
-      <c r="D83" s="1">
-        <v>439076</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:4">
-      <c r="C84" s="5">
-        <v>78</v>
-      </c>
-      <c r="D84" s="1">
-        <v>456633</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:4">
-      <c r="C85" s="5">
-        <v>79</v>
-      </c>
-      <c r="D85" s="1">
-        <v>474652</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="3:4">
-      <c r="C86" s="5">
-        <v>80</v>
-      </c>
-      <c r="D86" s="1">
-        <v>493139</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="3:4">
-      <c r="C87" s="5">
-        <v>81</v>
-      </c>
-      <c r="D87" s="1">
-        <v>512100</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="3:4">
-      <c r="C88" s="5">
-        <v>82</v>
-      </c>
-      <c r="D88" s="1">
-        <v>531541</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="3:4">
-      <c r="C89" s="5">
-        <v>83</v>
-      </c>
-      <c r="D89" s="1">
-        <v>551468</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="3:4">
-      <c r="C90" s="5">
-        <v>84</v>
-      </c>
-      <c r="D90" s="1">
-        <v>571887</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="3:4">
-      <c r="C91" s="5">
-        <v>85</v>
-      </c>
-      <c r="D91" s="1">
-        <v>592804</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="3:4">
-      <c r="C92" s="5">
-        <v>86</v>
-      </c>
-      <c r="D92" s="1">
-        <v>614225</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="3:4">
-      <c r="C93" s="5">
-        <v>87</v>
-      </c>
-      <c r="D93" s="1">
-        <v>636156</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="3:4">
-      <c r="C94" s="5">
-        <v>88</v>
-      </c>
-      <c r="D94" s="1">
-        <v>658603</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="3:4">
-      <c r="C95" s="5">
-        <v>89</v>
-      </c>
-      <c r="D95" s="1">
-        <v>681572</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:4">
-      <c r="C96" s="5">
-        <v>90</v>
-      </c>
-      <c r="D96" s="1">
-        <v>705069</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="3:4">
-      <c r="C97" s="5">
-        <v>91</v>
-      </c>
-      <c r="D97" s="1">
-        <v>729100</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:4">
-      <c r="C98" s="5">
-        <v>92</v>
-      </c>
-      <c r="D98" s="1">
-        <v>753671</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:4">
-      <c r="C99" s="5">
-        <v>93</v>
-      </c>
-      <c r="D99" s="1">
-        <v>778788</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="3:4">
-      <c r="C100" s="5">
-        <v>94</v>
-      </c>
-      <c r="D100" s="1">
-        <v>804457</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="3:4">
-      <c r="C101" s="5">
-        <v>95</v>
-      </c>
-      <c r="D101" s="1">
-        <v>830684</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="3:4">
-      <c r="C102" s="5">
-        <v>96</v>
-      </c>
-      <c r="D102" s="1">
-        <v>857475</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="3:4">
-      <c r="C103" s="5">
-        <v>97</v>
-      </c>
-      <c r="D103" s="1">
-        <v>884836</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="3:4">
-      <c r="C104" s="5">
-        <v>98</v>
-      </c>
-      <c r="D104" s="1">
-        <v>912773</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="3:4">
-      <c r="C105" s="5">
-        <v>99</v>
-      </c>
-      <c r="D105" s="1">
-        <v>941292</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="3:4">
-      <c r="C106" s="5">
-        <v>100</v>
-      </c>
-      <c r="D106" s="1">
-        <v>970399</v>
-      </c>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:3">
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" customHeight="1" spans="3:3">
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" customHeight="1" spans="3:3">
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" customHeight="1" spans="3:3">
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" customHeight="1" spans="3:3">
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" customHeight="1" spans="3:3">
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" customHeight="1" spans="3:3">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" customHeight="1" spans="3:3">
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" customHeight="1" spans="3:3">
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" customHeight="1" spans="3:3">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" customHeight="1" spans="3:3">
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" customHeight="1" spans="3:3">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" customHeight="1" spans="3:3">
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" customHeight="1" spans="3:3">
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" customHeight="1" spans="3:3">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" customHeight="1" spans="3:3">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" customHeight="1" spans="3:3">
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" customHeight="1" spans="3:3">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" customHeight="1" spans="3:3">
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" customHeight="1" spans="3:3">
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" customHeight="1" spans="3:3">
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" customHeight="1" spans="3:3">
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" customHeight="1" spans="3:3">
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" customHeight="1" spans="3:3">
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" customHeight="1" spans="3:3">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" customHeight="1" spans="3:3">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" customHeight="1" spans="3:3">
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" customHeight="1" spans="3:3">
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" customHeight="1" spans="3:3">
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" customHeight="1" spans="3:3">
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" customHeight="1" spans="3:3">
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" customHeight="1" spans="3:3">
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" customHeight="1" spans="3:3">
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" customHeight="1" spans="3:3">
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" customHeight="1" spans="3:3">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" customHeight="1" spans="3:3">
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" customHeight="1" spans="3:3">
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" customHeight="1" spans="3:3">
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" customHeight="1" spans="3:3">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" customHeight="1" spans="3:3">
+      <c r="C106" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31340" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="HeroLevelup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,7 +22,10 @@
     <t>等级</t>
   </si>
   <si>
-    <t>升到此级所需经验值</t>
+    <t>升到此级所需累计经验值</t>
+  </si>
+  <si>
+    <t>消耗金币，关联costloot表</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -37,6 +40,9 @@
     <t>promoteLimit</t>
   </si>
   <si>
+    <t>promoteCostId</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>突破次数限制</t>
   </si>
   <si>
+    <t>消耗id</t>
+  </si>
+  <si>
     <t>字段控制</t>
   </si>
   <si>
@@ -53,6 +62,183 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
 </sst>
 </file>
@@ -60,12 +246,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -80,37 +266,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,25 +288,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,33 +318,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,24 +340,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +369,62 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,187 +445,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,13 +660,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,30 +705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -520,17 +714,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,217 +752,219 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1911,22 +2112,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.4583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3076923076923" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:4">
@@ -1937,7 +2139,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:4">
+    <row r="2" ht="47" customHeight="1" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1946,62 +2148,75 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:5">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -2013,8 +2228,11 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:5">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
@@ -2026,8 +2244,11 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="16.15" customHeight="1" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
@@ -2039,8 +2260,11 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="14" customHeight="1" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
@@ -2052,8 +2276,11 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:5">
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:6">
       <c r="C11" s="5">
         <v>5</v>
       </c>
@@ -2063,8 +2290,11 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:5">
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:6">
       <c r="C12" s="5">
         <v>6</v>
       </c>
@@ -2074,8 +2304,11 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:5">
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:6">
       <c r="C13" s="5">
         <v>7</v>
       </c>
@@ -2085,8 +2318,11 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:5">
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:6">
       <c r="C14" s="5">
         <v>8</v>
       </c>
@@ -2096,8 +2332,11 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:5">
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:6">
       <c r="C15" s="5">
         <v>9</v>
       </c>
@@ -2107,8 +2346,11 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:5">
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:6">
       <c r="C16" s="5">
         <v>10</v>
       </c>
@@ -2118,8 +2360,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:5">
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:6">
       <c r="C17" s="5">
         <v>11</v>
       </c>
@@ -2129,8 +2374,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:5">
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:6">
       <c r="C18" s="5">
         <v>12</v>
       </c>
@@ -2140,8 +2388,11 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:5">
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:6">
       <c r="C19" s="5">
         <v>13</v>
       </c>
@@ -2151,8 +2402,11 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:5">
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:6">
       <c r="C20" s="5">
         <v>14</v>
       </c>
@@ -2162,8 +2416,11 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:5">
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:6">
       <c r="C21" s="5">
         <v>15</v>
       </c>
@@ -2173,8 +2430,11 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:5">
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:6">
       <c r="C22" s="5">
         <v>16</v>
       </c>
@@ -2184,8 +2444,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:5">
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:6">
       <c r="C23" s="5">
         <v>17</v>
       </c>
@@ -2195,8 +2458,11 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:5">
+      <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:6">
       <c r="C24" s="5">
         <v>18</v>
       </c>
@@ -2206,8 +2472,11 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:5">
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:6">
       <c r="C25" s="5">
         <v>19</v>
       </c>
@@ -2217,8 +2486,11 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:5">
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:6">
       <c r="C26" s="5">
         <v>20</v>
       </c>
@@ -2228,8 +2500,11 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:5">
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:6">
       <c r="C27" s="5">
         <v>21</v>
       </c>
@@ -2239,8 +2514,11 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:5">
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:6">
       <c r="C28" s="5">
         <v>22</v>
       </c>
@@ -2250,8 +2528,11 @@
       <c r="E28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:5">
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:6">
       <c r="C29" s="5">
         <v>23</v>
       </c>
@@ -2261,8 +2542,11 @@
       <c r="E29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:5">
+      <c r="F29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:6">
       <c r="C30" s="5">
         <v>24</v>
       </c>
@@ -2272,8 +2556,11 @@
       <c r="E30" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:5">
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:6">
       <c r="C31" s="5">
         <v>25</v>
       </c>
@@ -2283,8 +2570,11 @@
       <c r="E31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:5">
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:6">
       <c r="C32" s="5">
         <v>26</v>
       </c>
@@ -2294,8 +2584,11 @@
       <c r="E32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:5">
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:6">
       <c r="C33" s="5">
         <v>27</v>
       </c>
@@ -2305,8 +2598,11 @@
       <c r="E33" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:5">
+      <c r="F33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:6">
       <c r="C34" s="5">
         <v>28</v>
       </c>
@@ -2316,8 +2612,11 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:5">
+      <c r="F34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:6">
       <c r="C35" s="5">
         <v>29</v>
       </c>
@@ -2327,8 +2626,11 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:5">
+      <c r="F35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:6">
       <c r="C36" s="5">
         <v>30</v>
       </c>
@@ -2338,8 +2640,11 @@
       <c r="E36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:5">
+      <c r="F36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:6">
       <c r="C37" s="5">
         <v>31</v>
       </c>
@@ -2349,8 +2654,11 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:5">
+      <c r="F37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:6">
       <c r="C38" s="5">
         <v>32</v>
       </c>
@@ -2360,8 +2668,11 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:5">
+      <c r="F38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:6">
       <c r="C39" s="5">
         <v>33</v>
       </c>
@@ -2371,8 +2682,11 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:5">
+      <c r="F39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:6">
       <c r="C40" s="5">
         <v>34</v>
       </c>
@@ -2382,8 +2696,11 @@
       <c r="E40" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:5">
+      <c r="F40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:6">
       <c r="C41" s="5">
         <v>35</v>
       </c>
@@ -2393,8 +2710,11 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:5">
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:6">
       <c r="C42" s="5">
         <v>36</v>
       </c>
@@ -2404,8 +2724,11 @@
       <c r="E42" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:5">
+      <c r="F42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:6">
       <c r="C43" s="5">
         <v>37</v>
       </c>
@@ -2415,8 +2738,11 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:5">
+      <c r="F43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:6">
       <c r="C44" s="5">
         <v>38</v>
       </c>
@@ -2426,8 +2752,11 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:5">
+      <c r="F44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:6">
       <c r="C45" s="5">
         <v>39</v>
       </c>
@@ -2437,8 +2766,11 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:5">
+      <c r="F45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:6">
       <c r="C46" s="5">
         <v>40</v>
       </c>
@@ -2448,8 +2780,11 @@
       <c r="E46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:5">
+      <c r="F46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:6">
       <c r="C47" s="5">
         <v>41</v>
       </c>
@@ -2459,8 +2794,11 @@
       <c r="E47" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:5">
+      <c r="F47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:6">
       <c r="C48" s="5">
         <v>42</v>
       </c>
@@ -2470,8 +2808,11 @@
       <c r="E48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:5">
+      <c r="F48" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:6">
       <c r="C49" s="5">
         <v>43</v>
       </c>
@@ -2481,8 +2822,11 @@
       <c r="E49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:5">
+      <c r="F49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:6">
       <c r="C50" s="5">
         <v>44</v>
       </c>
@@ -2492,8 +2836,11 @@
       <c r="E50" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:5">
+      <c r="F50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:6">
       <c r="C51" s="5">
         <v>45</v>
       </c>
@@ -2503,8 +2850,11 @@
       <c r="E51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:5">
+      <c r="F51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:6">
       <c r="C52" s="5">
         <v>46</v>
       </c>
@@ -2514,8 +2864,11 @@
       <c r="E52" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:5">
+      <c r="F52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:6">
       <c r="C53" s="5">
         <v>47</v>
       </c>
@@ -2525,8 +2878,11 @@
       <c r="E53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:5">
+      <c r="F53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:6">
       <c r="C54" s="5">
         <v>48</v>
       </c>
@@ -2536,8 +2892,11 @@
       <c r="E54" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:5">
+      <c r="F54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:6">
       <c r="C55" s="5">
         <v>49</v>
       </c>
@@ -2547,8 +2906,11 @@
       <c r="E55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:5">
+      <c r="F55" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:6">
       <c r="C56" s="5">
         <v>50</v>
       </c>
@@ -2558,8 +2920,11 @@
       <c r="E56" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:5">
+      <c r="F56" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:6">
       <c r="C57" s="5">
         <v>51</v>
       </c>
@@ -2569,8 +2934,11 @@
       <c r="E57" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:5">
+      <c r="F57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:6">
       <c r="C58" s="5">
         <v>52</v>
       </c>
@@ -2580,8 +2948,11 @@
       <c r="E58" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:5">
+      <c r="F58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:6">
       <c r="C59" s="5">
         <v>53</v>
       </c>
@@ -2591,8 +2962,11 @@
       <c r="E59" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:5">
+      <c r="F59" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:6">
       <c r="C60" s="5">
         <v>54</v>
       </c>
@@ -2602,8 +2976,11 @@
       <c r="E60" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:5">
+      <c r="F60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:6">
       <c r="C61" s="5">
         <v>55</v>
       </c>
@@ -2613,8 +2990,11 @@
       <c r="E61" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:5">
+      <c r="F61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:6">
       <c r="C62" s="5">
         <v>56</v>
       </c>
@@ -2624,8 +3004,11 @@
       <c r="E62" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:5">
+      <c r="F62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:6">
       <c r="C63" s="5">
         <v>57</v>
       </c>
@@ -2635,8 +3018,11 @@
       <c r="E63" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:5">
+      <c r="F63" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:6">
       <c r="C64" s="5">
         <v>58</v>
       </c>
@@ -2646,8 +3032,11 @@
       <c r="E64" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:5">
+      <c r="F64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:6">
       <c r="C65" s="5">
         <v>59</v>
       </c>
@@ -2657,8 +3046,11 @@
       <c r="E65" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:5">
+      <c r="F65" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:6">
       <c r="C66" s="5">
         <v>60</v>
       </c>
@@ -2667,6 +3059,9 @@
       </c>
       <c r="E66" s="1">
         <v>5</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:3">

--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31340" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroLevelup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>升到此级所需累计经验值</t>
-  </si>
-  <si>
-    <t>消耗金币，关联costloot表</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -40,9 +37,6 @@
     <t>promoteLimit</t>
   </si>
   <si>
-    <t>promoteCostId</t>
-  </si>
-  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
   </si>
   <si>
     <t>突破次数限制</t>
-  </si>
-  <si>
-    <t>消耗id</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -63,195 +54,18 @@
   <si>
     <t>int32</t>
   </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,57 +82,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,9 +96,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,9 +119,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,22 +164,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +201,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -401,30 +224,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,7 +252,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,181 +300,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,17 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,16 +492,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,8 +533,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,237 +550,220 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2112,23 +1911,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3076923076923" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="6" max="16383" width="6" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:4">
@@ -2139,7 +1938,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:6">
+    <row r="2" ht="47" customHeight="1" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2148,75 +1947,62 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -2228,11 +2014,8 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:6">
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
@@ -2244,11 +2027,8 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="9" ht="16.15" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
@@ -2260,11 +2040,8 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="14" customHeight="1" spans="1:6">
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
@@ -2276,11 +2053,8 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:6">
+    </row>
+    <row r="11" customHeight="1" spans="3:5">
       <c r="C11" s="5">
         <v>5</v>
       </c>
@@ -2290,11 +2064,8 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:6">
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="5">
         <v>6</v>
       </c>
@@ -2304,11 +2075,8 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:6">
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="5">
         <v>7</v>
       </c>
@@ -2318,11 +2086,8 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:6">
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="5">
         <v>8</v>
       </c>
@@ -2332,11 +2097,8 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:6">
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="5">
         <v>9</v>
       </c>
@@ -2346,11 +2108,8 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:6">
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="5">
         <v>10</v>
       </c>
@@ -2360,11 +2119,8 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:6">
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="5">
         <v>11</v>
       </c>
@@ -2374,11 +2130,8 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:6">
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
       <c r="C18" s="5">
         <v>12</v>
       </c>
@@ -2388,11 +2141,8 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:6">
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
       <c r="C19" s="5">
         <v>13</v>
       </c>
@@ -2402,11 +2152,8 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:6">
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
       <c r="C20" s="5">
         <v>14</v>
       </c>
@@ -2416,11 +2163,8 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:6">
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="5">
         <v>15</v>
       </c>
@@ -2430,11 +2174,8 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:6">
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="5">
         <v>16</v>
       </c>
@@ -2444,11 +2185,8 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:6">
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="5">
         <v>17</v>
       </c>
@@ -2458,11 +2196,8 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:6">
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="5">
         <v>18</v>
       </c>
@@ -2472,11 +2207,8 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:6">
+    </row>
+    <row r="25" customHeight="1" spans="3:5">
       <c r="C25" s="5">
         <v>19</v>
       </c>
@@ -2486,11 +2218,8 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:6">
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="5">
         <v>20</v>
       </c>
@@ -2500,11 +2229,8 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:6">
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="5">
         <v>21</v>
       </c>
@@ -2514,11 +2240,8 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:6">
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="5">
         <v>22</v>
       </c>
@@ -2528,11 +2251,8 @@
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:6">
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="5">
         <v>23</v>
       </c>
@@ -2542,11 +2262,8 @@
       <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:6">
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="5">
         <v>24</v>
       </c>
@@ -2556,11 +2273,8 @@
       <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:6">
+    </row>
+    <row r="31" customHeight="1" spans="3:5">
       <c r="C31" s="5">
         <v>25</v>
       </c>
@@ -2570,11 +2284,8 @@
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:6">
+    </row>
+    <row r="32" customHeight="1" spans="3:5">
       <c r="C32" s="5">
         <v>26</v>
       </c>
@@ -2584,11 +2295,8 @@
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:6">
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="5">
         <v>27</v>
       </c>
@@ -2598,11 +2306,8 @@
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:6">
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="5">
         <v>28</v>
       </c>
@@ -2612,11 +2317,8 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:6">
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="5">
         <v>29</v>
       </c>
@@ -2626,11 +2328,8 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:6">
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="5">
         <v>30</v>
       </c>
@@ -2640,11 +2339,8 @@
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:6">
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="5">
         <v>31</v>
       </c>
@@ -2654,11 +2350,8 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:6">
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="5">
         <v>32</v>
       </c>
@@ -2668,11 +2361,8 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:6">
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="5">
         <v>33</v>
       </c>
@@ -2682,11 +2372,8 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:6">
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="5">
         <v>34</v>
       </c>
@@ -2696,11 +2383,8 @@
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:6">
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
       <c r="C41" s="5">
         <v>35</v>
       </c>
@@ -2710,11 +2394,8 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:6">
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
       <c r="C42" s="5">
         <v>36</v>
       </c>
@@ -2724,11 +2405,8 @@
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:6">
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
       <c r="C43" s="5">
         <v>37</v>
       </c>
@@ -2738,11 +2416,8 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:6">
+    </row>
+    <row r="44" customHeight="1" spans="3:5">
       <c r="C44" s="5">
         <v>38</v>
       </c>
@@ -2752,11 +2427,8 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:6">
+    </row>
+    <row r="45" customHeight="1" spans="3:5">
       <c r="C45" s="5">
         <v>39</v>
       </c>
@@ -2766,11 +2438,8 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:6">
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
       <c r="C46" s="5">
         <v>40</v>
       </c>
@@ -2780,11 +2449,8 @@
       <c r="E46" s="1">
         <v>4</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:6">
+    </row>
+    <row r="47" customHeight="1" spans="3:5">
       <c r="C47" s="5">
         <v>41</v>
       </c>
@@ -2794,11 +2460,8 @@
       <c r="E47" s="1">
         <v>4</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:6">
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
       <c r="C48" s="5">
         <v>42</v>
       </c>
@@ -2808,11 +2471,8 @@
       <c r="E48" s="1">
         <v>4</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:6">
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
       <c r="C49" s="5">
         <v>43</v>
       </c>
@@ -2822,11 +2482,8 @@
       <c r="E49" s="1">
         <v>4</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:6">
+    </row>
+    <row r="50" customHeight="1" spans="3:5">
       <c r="C50" s="5">
         <v>44</v>
       </c>
@@ -2836,11 +2493,8 @@
       <c r="E50" s="1">
         <v>4</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:6">
+    </row>
+    <row r="51" customHeight="1" spans="3:5">
       <c r="C51" s="5">
         <v>45</v>
       </c>
@@ -2850,11 +2504,8 @@
       <c r="E51" s="1">
         <v>4</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:6">
+    </row>
+    <row r="52" customHeight="1" spans="3:5">
       <c r="C52" s="5">
         <v>46</v>
       </c>
@@ -2864,11 +2515,8 @@
       <c r="E52" s="1">
         <v>4</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:6">
+    </row>
+    <row r="53" customHeight="1" spans="3:5">
       <c r="C53" s="5">
         <v>47</v>
       </c>
@@ -2878,11 +2526,8 @@
       <c r="E53" s="1">
         <v>4</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:6">
+    </row>
+    <row r="54" customHeight="1" spans="3:5">
       <c r="C54" s="5">
         <v>48</v>
       </c>
@@ -2892,11 +2537,8 @@
       <c r="E54" s="1">
         <v>4</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:6">
+    </row>
+    <row r="55" customHeight="1" spans="3:5">
       <c r="C55" s="5">
         <v>49</v>
       </c>
@@ -2906,11 +2548,8 @@
       <c r="E55" s="1">
         <v>4</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:6">
+    </row>
+    <row r="56" customHeight="1" spans="3:5">
       <c r="C56" s="5">
         <v>50</v>
       </c>
@@ -2920,11 +2559,8 @@
       <c r="E56" s="1">
         <v>5</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:6">
+    </row>
+    <row r="57" customHeight="1" spans="3:5">
       <c r="C57" s="5">
         <v>51</v>
       </c>
@@ -2934,11 +2570,8 @@
       <c r="E57" s="1">
         <v>5</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:6">
+    </row>
+    <row r="58" customHeight="1" spans="3:5">
       <c r="C58" s="5">
         <v>52</v>
       </c>
@@ -2948,11 +2581,8 @@
       <c r="E58" s="1">
         <v>5</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:6">
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
       <c r="C59" s="5">
         <v>53</v>
       </c>
@@ -2962,11 +2592,8 @@
       <c r="E59" s="1">
         <v>5</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:6">
+    </row>
+    <row r="60" customHeight="1" spans="3:5">
       <c r="C60" s="5">
         <v>54</v>
       </c>
@@ -2976,11 +2603,8 @@
       <c r="E60" s="1">
         <v>5</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:6">
+    </row>
+    <row r="61" customHeight="1" spans="3:5">
       <c r="C61" s="5">
         <v>55</v>
       </c>
@@ -2990,11 +2614,8 @@
       <c r="E61" s="1">
         <v>5</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:6">
+    </row>
+    <row r="62" customHeight="1" spans="3:5">
       <c r="C62" s="5">
         <v>56</v>
       </c>
@@ -3004,11 +2625,8 @@
       <c r="E62" s="1">
         <v>5</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:6">
+    </row>
+    <row r="63" customHeight="1" spans="3:5">
       <c r="C63" s="5">
         <v>57</v>
       </c>
@@ -3018,11 +2636,8 @@
       <c r="E63" s="1">
         <v>5</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:6">
+    </row>
+    <row r="64" customHeight="1" spans="3:5">
       <c r="C64" s="5">
         <v>58</v>
       </c>
@@ -3032,11 +2647,8 @@
       <c r="E64" s="1">
         <v>5</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:6">
+    </row>
+    <row r="65" customHeight="1" spans="3:5">
       <c r="C65" s="5">
         <v>59</v>
       </c>
@@ -3046,11 +2658,8 @@
       <c r="E65" s="1">
         <v>5</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:6">
+    </row>
+    <row r="66" customHeight="1" spans="3:5">
       <c r="C66" s="5">
         <v>60</v>
       </c>
@@ -3059,9 +2668,6 @@
       </c>
       <c r="E66" s="1">
         <v>5</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:3">

--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroLevelup" sheetId="1" r:id="rId1"/>
@@ -80,54 +80,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,9 +111,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,8 +140,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,19 +216,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,21 +230,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -252,13 +252,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,25 +366,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,139 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,51 +457,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,11 +485,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,151 +549,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1915,8 +1915,8 @@
   <sheetPr/>
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
@@ -2116,8 +2116,8 @@
       <c r="D16" s="1">
         <v>829</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
+      <c r="E16" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:5">
@@ -2127,8 +2127,8 @@
       <c r="D17" s="1">
         <v>1100</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
+      <c r="E17" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:5">
@@ -2138,8 +2138,8 @@
       <c r="D18" s="1">
         <v>1431</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
+      <c r="E18" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:5">
@@ -2149,8 +2149,8 @@
       <c r="D19" s="1">
         <v>1828</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
+      <c r="E19" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:5">
@@ -2160,8 +2160,8 @@
       <c r="D20" s="1">
         <v>2297</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
+      <c r="E20" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:5">
@@ -2171,8 +2171,8 @@
       <c r="D21" s="1">
         <v>2844</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
+      <c r="E21" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:5">
@@ -2182,8 +2182,8 @@
       <c r="D22" s="1">
         <v>3475</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
+      <c r="E22" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:5">
@@ -2193,8 +2193,8 @@
       <c r="D23" s="1">
         <v>4196</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
+      <c r="E23" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:5">
@@ -2204,8 +2204,8 @@
       <c r="D24" s="1">
         <v>5013</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
+      <c r="E24" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:5">
@@ -2215,8 +2215,8 @@
       <c r="D25" s="1">
         <v>5932</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
+      <c r="E25" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:5">
@@ -2226,8 +2226,8 @@
       <c r="D26" s="1">
         <v>6959</v>
       </c>
-      <c r="E26" s="1">
-        <v>2</v>
+      <c r="E26" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:5">
@@ -2238,7 +2238,7 @@
         <v>8100</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:5">
@@ -2249,7 +2249,7 @@
         <v>9361</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:5">
@@ -2260,7 +2260,7 @@
         <v>10748</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:5">
@@ -2271,7 +2271,7 @@
         <v>12267</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:5">
@@ -2282,7 +2282,7 @@
         <v>13924</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:5">
@@ -2293,7 +2293,7 @@
         <v>15725</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:5">
@@ -2304,7 +2304,7 @@
         <v>17676</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:5">
@@ -2315,7 +2315,7 @@
         <v>19783</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:5">
@@ -2326,7 +2326,7 @@
         <v>22052</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:5">
@@ -2337,7 +2337,7 @@
         <v>24489</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:5">
@@ -2348,7 +2348,7 @@
         <v>27100</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:5">
@@ -2359,7 +2359,7 @@
         <v>29891</v>
       </c>
       <c r="E38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:5">
@@ -2370,7 +2370,7 @@
         <v>32868</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:5">
@@ -2381,7 +2381,7 @@
         <v>36037</v>
       </c>
       <c r="E40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:5">
@@ -2392,7 +2392,7 @@
         <v>39404</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:5">
@@ -2403,7 +2403,7 @@
         <v>42975</v>
       </c>
       <c r="E42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:5">
@@ -2414,7 +2414,7 @@
         <v>46756</v>
       </c>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:5">
@@ -2425,7 +2425,7 @@
         <v>50753</v>
       </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:5">
@@ -2436,7 +2436,7 @@
         <v>54972</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:5">
@@ -2447,7 +2447,7 @@
         <v>59419</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:5">
@@ -2458,7 +2458,7 @@
         <v>64100</v>
       </c>
       <c r="E47" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:5">
@@ -2469,7 +2469,7 @@
         <v>69021</v>
       </c>
       <c r="E48" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:5">
@@ -2480,7 +2480,7 @@
         <v>74188</v>
       </c>
       <c r="E49" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:5">
@@ -2491,7 +2491,7 @@
         <v>79607</v>
       </c>
       <c r="E50" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:5">
@@ -2502,7 +2502,7 @@
         <v>85284</v>
       </c>
       <c r="E51" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:5">
@@ -2513,7 +2513,7 @@
         <v>91225</v>
       </c>
       <c r="E52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:5">
@@ -2524,7 +2524,7 @@
         <v>97436</v>
       </c>
       <c r="E53" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:5">
@@ -2535,7 +2535,7 @@
         <v>103923</v>
       </c>
       <c r="E54" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:5">
@@ -2546,7 +2546,7 @@
         <v>110692</v>
       </c>
       <c r="E55" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:5">
@@ -2557,7 +2557,7 @@
         <v>117749</v>
       </c>
       <c r="E56" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:5">
@@ -2568,7 +2568,7 @@
         <v>125100</v>
       </c>
       <c r="E57" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:5">
@@ -2579,7 +2579,7 @@
         <v>132751</v>
       </c>
       <c r="E58" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:5">
@@ -2590,7 +2590,7 @@
         <v>140708</v>
       </c>
       <c r="E59" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:5">
@@ -2601,7 +2601,7 @@
         <v>148977</v>
       </c>
       <c r="E60" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:5">
@@ -2612,7 +2612,7 @@
         <v>157564</v>
       </c>
       <c r="E61" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:5">
@@ -2623,7 +2623,7 @@
         <v>166475</v>
       </c>
       <c r="E62" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:5">
@@ -2634,7 +2634,7 @@
         <v>175716</v>
       </c>
       <c r="E63" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:5">
@@ -2645,7 +2645,7 @@
         <v>185293</v>
       </c>
       <c r="E64" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:5">
@@ -2656,7 +2656,7 @@
         <v>195212</v>
       </c>
       <c r="E65" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:5">
@@ -2667,128 +2667,448 @@
         <v>205479</v>
       </c>
       <c r="E66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:5">
+      <c r="C67" s="5">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:5">
+      <c r="C68" s="5">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:5">
+      <c r="C69" s="5">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:5">
+      <c r="C70" s="5">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:5">
+      <c r="C71" s="5">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:5">
+      <c r="C72" s="5">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:5">
+      <c r="C73" s="5">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:5">
+      <c r="C74" s="5">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:5">
+      <c r="C75" s="5">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:5">
+      <c r="C76" s="5">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:5">
+      <c r="C77" s="5">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E77" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="3:3">
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" customHeight="1" spans="3:3">
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" customHeight="1" spans="3:3">
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" customHeight="1" spans="3:3">
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" customHeight="1" spans="3:3">
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" customHeight="1" spans="3:3">
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" customHeight="1" spans="3:3">
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" customHeight="1" spans="3:3">
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" customHeight="1" spans="3:3">
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" customHeight="1" spans="3:3">
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" customHeight="1" spans="3:3">
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" customHeight="1" spans="3:3">
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" customHeight="1" spans="3:3">
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" customHeight="1" spans="3:3">
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" customHeight="1" spans="3:3">
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" customHeight="1" spans="3:3">
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" customHeight="1" spans="3:3">
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" customHeight="1" spans="3:3">
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" customHeight="1" spans="3:3">
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" customHeight="1" spans="3:3">
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" customHeight="1" spans="3:3">
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" customHeight="1" spans="3:3">
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" customHeight="1" spans="3:3">
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" customHeight="1" spans="3:3">
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" customHeight="1" spans="3:3">
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" customHeight="1" spans="3:3">
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" customHeight="1" spans="3:3">
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" customHeight="1" spans="3:3">
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" customHeight="1" spans="3:3">
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" customHeight="1" spans="3:3">
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" customHeight="1" spans="3:3">
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" customHeight="1" spans="3:3">
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" customHeight="1" spans="3:3">
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" customHeight="1" spans="3:3">
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" customHeight="1" spans="3:3">
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" customHeight="1" spans="3:3">
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" customHeight="1" spans="3:3">
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" customHeight="1" spans="3:3">
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" customHeight="1" spans="3:3">
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" customHeight="1" spans="3:3">
-      <c r="C106" s="5"/>
+    <row r="78" customHeight="1" spans="3:5">
+      <c r="C78" s="5">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:5">
+      <c r="C79" s="5">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:5">
+      <c r="C80" s="5">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:5">
+      <c r="C81" s="5">
+        <v>75</v>
+      </c>
+      <c r="D81" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:5">
+      <c r="C82" s="5">
+        <v>76</v>
+      </c>
+      <c r="D82" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:5">
+      <c r="C83" s="5">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:5">
+      <c r="C84" s="5">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:5">
+      <c r="C85" s="5">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:5">
+      <c r="C86" s="5">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:5">
+      <c r="C87" s="5">
+        <v>81</v>
+      </c>
+      <c r="D87" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E87" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:5">
+      <c r="C88" s="5">
+        <v>82</v>
+      </c>
+      <c r="D88" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E88" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:5">
+      <c r="C89" s="5">
+        <v>83</v>
+      </c>
+      <c r="D89" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E89" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:5">
+      <c r="C90" s="5">
+        <v>84</v>
+      </c>
+      <c r="D90" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:5">
+      <c r="C91" s="5">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E91" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:5">
+      <c r="C92" s="5">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E92" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:5">
+      <c r="C93" s="5">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E93" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:5">
+      <c r="C94" s="5">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E94" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:5">
+      <c r="C95" s="5">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:5">
+      <c r="C96" s="5">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E96" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:5">
+      <c r="C97" s="5">
+        <v>91</v>
+      </c>
+      <c r="D97" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E97" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:5">
+      <c r="C98" s="5">
+        <v>92</v>
+      </c>
+      <c r="D98" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:5">
+      <c r="C99" s="5">
+        <v>93</v>
+      </c>
+      <c r="D99" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E99" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:5">
+      <c r="C100" s="5">
+        <v>94</v>
+      </c>
+      <c r="D100" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E100" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:5">
+      <c r="C101" s="5">
+        <v>95</v>
+      </c>
+      <c r="D101" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E101" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:5">
+      <c r="C102" s="5">
+        <v>96</v>
+      </c>
+      <c r="D102" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E102" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:5">
+      <c r="C103" s="5">
+        <v>97</v>
+      </c>
+      <c r="D103" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E103" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:5">
+      <c r="C104" s="5">
+        <v>98</v>
+      </c>
+      <c r="D104" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E104" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:5">
+      <c r="C105" s="5">
+        <v>99</v>
+      </c>
+      <c r="D105" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:5">
+      <c r="C106" s="5">
+        <v>100</v>
+      </c>
+      <c r="D106" s="1">
+        <v>205479</v>
+      </c>
+      <c r="E106" s="1">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -80,33 +80,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,9 +95,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,8 +125,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,8 +157,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,7 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,55 +225,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -252,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,60 +457,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +496,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -561,148 +561,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1915,8 +1915,8 @@
   <sheetPr/>
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97:E106"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>829</v>
+        <v>794</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>1431</v>
+        <v>1547</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>1828</v>
+        <v>2107</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>2297</v>
+        <v>2771</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>2844</v>
+        <v>3548</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>3475</v>
+        <v>4449</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>4196</v>
+        <v>5484</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>5013</v>
+        <v>6663</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>5932</v>
+        <v>7997</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>6959</v>
+        <v>9497</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>8100</v>
+        <v>11174</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>9361</v>
+        <v>13038</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>10748</v>
+        <v>15101</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2268,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>12267</v>
+        <v>17373</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2279,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>13924</v>
+        <v>19866</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2290,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>15725</v>
+        <v>23273</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>17676</v>
+        <v>26984</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2312,7 +2312,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>19783</v>
+        <v>31014</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2323,7 +2323,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>22052</v>
+        <v>35378</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>24489</v>
+        <v>40090</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>27100</v>
+        <v>45164</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>29891</v>
+        <v>51706</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>32868</v>
+        <v>58719</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>36037</v>
+        <v>66221</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2389,7 +2389,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>39404</v>
+        <v>74230</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>42975</v>
+        <v>82764</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>46756</v>
+        <v>91842</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>50753</v>
+        <v>101482</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>54972</v>
+        <v>111702</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>59419</v>
+        <v>122521</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>64100</v>
+        <v>133958</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -2466,7 +2466,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>69021</v>
+        <v>148044</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -2477,7 +2477,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>74188</v>
+        <v>162895</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2488,7 +2488,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>79607</v>
+        <v>178533</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2499,7 +2499,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>85284</v>
+        <v>194980</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -2510,7 +2510,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>91225</v>
+        <v>212258</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -2521,7 +2521,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>97436</v>
+        <v>232981</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -2532,7 +2532,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>103923</v>
+        <v>254706</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -2543,7 +2543,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>110692</v>
+        <v>277458</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -2554,7 +2554,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>117749</v>
+        <v>304240</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -2565,7 +2565,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>125100</v>
+        <v>332237</v>
       </c>
       <c r="E57" s="1">
         <v>3</v>
@@ -2576,7 +2576,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>132751</v>
+        <v>364727</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
@@ -2587,7 +2587,7 @@
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>140708</v>
+        <v>398633</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -2598,7 +2598,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>148977</v>
+        <v>433988</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -2609,7 +2609,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>157564</v>
+        <v>470825</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -2620,7 +2620,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>166475</v>
+        <v>509177</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
@@ -2631,7 +2631,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>175716</v>
+        <v>549077</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -2642,7 +2642,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>185293</v>
+        <v>590559</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -2653,7 +2653,7 @@
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>195212</v>
+        <v>633657</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
@@ -2664,7 +2664,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>205479</v>
+        <v>678405</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -2675,7 +2675,7 @@
         <v>61</v>
       </c>
       <c r="D67" s="1">
-        <v>205479</v>
+        <v>724836</v>
       </c>
       <c r="E67" s="1">
         <v>4</v>
@@ -2686,7 +2686,7 @@
         <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>205479</v>
+        <v>772984</v>
       </c>
       <c r="E68" s="1">
         <v>4</v>
@@ -2697,7 +2697,7 @@
         <v>63</v>
       </c>
       <c r="D69" s="1">
-        <v>205479</v>
+        <v>822884</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -2708,7 +2708,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="1">
-        <v>205479</v>
+        <v>874570</v>
       </c>
       <c r="E70" s="1">
         <v>4</v>
@@ -2719,7 +2719,7 @@
         <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>205479</v>
+        <v>928076</v>
       </c>
       <c r="E71" s="1">
         <v>4</v>
@@ -2730,7 +2730,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="1">
-        <v>205479</v>
+        <v>983436</v>
       </c>
       <c r="E72" s="1">
         <v>4</v>
@@ -2741,7 +2741,7 @@
         <v>67</v>
       </c>
       <c r="D73" s="1">
-        <v>205479</v>
+        <v>1040686</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
@@ -2752,7 +2752,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="1">
-        <v>205479</v>
+        <v>1099859</v>
       </c>
       <c r="E74" s="1">
         <v>4</v>
@@ -2763,7 +2763,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="1">
-        <v>205479</v>
+        <v>1160991</v>
       </c>
       <c r="E75" s="1">
         <v>4</v>
@@ -2774,7 +2774,7 @@
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>205479</v>
+        <v>1224116</v>
       </c>
       <c r="E76" s="1">
         <v>4</v>
@@ -2785,7 +2785,7 @@
         <v>71</v>
       </c>
       <c r="D77" s="1">
-        <v>205479</v>
+        <v>1289270</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
@@ -2796,7 +2796,7 @@
         <v>72</v>
       </c>
       <c r="D78" s="1">
-        <v>205479</v>
+        <v>1356487</v>
       </c>
       <c r="E78" s="1">
         <v>5</v>
@@ -2807,7 +2807,7 @@
         <v>73</v>
       </c>
       <c r="D79" s="1">
-        <v>205479</v>
+        <v>1425803</v>
       </c>
       <c r="E79" s="1">
         <v>5</v>
@@ -2818,7 +2818,7 @@
         <v>74</v>
       </c>
       <c r="D80" s="1">
-        <v>205479</v>
+        <v>1497253</v>
       </c>
       <c r="E80" s="1">
         <v>5</v>
@@ -2829,7 +2829,7 @@
         <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>205479</v>
+        <v>1570872</v>
       </c>
       <c r="E81" s="1">
         <v>5</v>
@@ -2840,7 +2840,7 @@
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>205479</v>
+        <v>1646696</v>
       </c>
       <c r="E82" s="1">
         <v>5</v>
@@ -2851,7 +2851,7 @@
         <v>77</v>
       </c>
       <c r="D83" s="1">
-        <v>205479</v>
+        <v>1724760</v>
       </c>
       <c r="E83" s="1">
         <v>5</v>
@@ -2862,7 +2862,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="1">
-        <v>205479</v>
+        <v>1805100</v>
       </c>
       <c r="E84" s="1">
         <v>5</v>
@@ -2873,7 +2873,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="1">
-        <v>205479</v>
+        <v>1887752</v>
       </c>
       <c r="E85" s="1">
         <v>5</v>
@@ -2884,7 +2884,7 @@
         <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>205479</v>
+        <v>1972751</v>
       </c>
       <c r="E86" s="1">
         <v>5</v>
@@ -2895,7 +2895,7 @@
         <v>81</v>
       </c>
       <c r="D87" s="1">
-        <v>205479</v>
+        <v>2060134</v>
       </c>
       <c r="E87" s="1">
         <v>6</v>
@@ -2906,7 +2906,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1">
-        <v>205479</v>
+        <v>2149936</v>
       </c>
       <c r="E88" s="1">
         <v>6</v>
@@ -2917,7 +2917,7 @@
         <v>83</v>
       </c>
       <c r="D89" s="1">
-        <v>205479</v>
+        <v>2242194</v>
       </c>
       <c r="E89" s="1">
         <v>6</v>
@@ -2928,7 +2928,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="1">
-        <v>205479</v>
+        <v>2336944</v>
       </c>
       <c r="E90" s="1">
         <v>6</v>
@@ -2939,7 +2939,7 @@
         <v>85</v>
       </c>
       <c r="D91" s="1">
-        <v>205479</v>
+        <v>2434222</v>
       </c>
       <c r="E91" s="1">
         <v>6</v>
@@ -2950,7 +2950,7 @@
         <v>86</v>
       </c>
       <c r="D92" s="1">
-        <v>205479</v>
+        <v>2534064</v>
       </c>
       <c r="E92" s="1">
         <v>6</v>
@@ -2961,7 +2961,7 @@
         <v>87</v>
       </c>
       <c r="D93" s="1">
-        <v>205479</v>
+        <v>2636507</v>
       </c>
       <c r="E93" s="1">
         <v>6</v>
@@ -2972,7 +2972,7 @@
         <v>88</v>
       </c>
       <c r="D94" s="1">
-        <v>205479</v>
+        <v>2741588</v>
       </c>
       <c r="E94" s="1">
         <v>6</v>
@@ -2983,7 +2983,7 @@
         <v>89</v>
       </c>
       <c r="D95" s="1">
-        <v>205479</v>
+        <v>2849343</v>
       </c>
       <c r="E95" s="1">
         <v>6</v>
@@ -2994,7 +2994,7 @@
         <v>90</v>
       </c>
       <c r="D96" s="1">
-        <v>205479</v>
+        <v>2959809</v>
       </c>
       <c r="E96" s="1">
         <v>6</v>
@@ -3005,7 +3005,7 @@
         <v>91</v>
       </c>
       <c r="D97" s="1">
-        <v>205479</v>
+        <v>3073022</v>
       </c>
       <c r="E97" s="1">
         <v>7</v>
@@ -3016,7 +3016,7 @@
         <v>92</v>
       </c>
       <c r="D98" s="1">
-        <v>205479</v>
+        <v>3189020</v>
       </c>
       <c r="E98" s="1">
         <v>7</v>
@@ -3027,7 +3027,7 @@
         <v>93</v>
       </c>
       <c r="D99" s="1">
-        <v>205479</v>
+        <v>3307839</v>
       </c>
       <c r="E99" s="1">
         <v>7</v>
@@ -3038,7 +3038,7 @@
         <v>94</v>
       </c>
       <c r="D100" s="1">
-        <v>205479</v>
+        <v>3429517</v>
       </c>
       <c r="E100" s="1">
         <v>7</v>
@@ -3049,7 +3049,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="1">
-        <v>205479</v>
+        <v>3554091</v>
       </c>
       <c r="E101" s="1">
         <v>7</v>
@@ -3060,7 +3060,7 @@
         <v>96</v>
       </c>
       <c r="D102" s="1">
-        <v>205479</v>
+        <v>3681597</v>
       </c>
       <c r="E102" s="1">
         <v>7</v>
@@ -3071,7 +3071,7 @@
         <v>97</v>
       </c>
       <c r="D103" s="1">
-        <v>205479</v>
+        <v>3812074</v>
       </c>
       <c r="E103" s="1">
         <v>7</v>
@@ -3082,7 +3082,7 @@
         <v>98</v>
       </c>
       <c r="D104" s="1">
-        <v>205479</v>
+        <v>3945558</v>
       </c>
       <c r="E104" s="1">
         <v>7</v>
@@ -3093,7 +3093,7 @@
         <v>99</v>
       </c>
       <c r="D105" s="1">
-        <v>205479</v>
+        <v>4082087</v>
       </c>
       <c r="E105" s="1">
         <v>7</v>
@@ -3104,7 +3104,7 @@
         <v>100</v>
       </c>
       <c r="D106" s="1">
-        <v>205479</v>
+        <v>4221698</v>
       </c>
       <c r="E106" s="1">
         <v>7</v>

--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31340" windowHeight="17020"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroLevelup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>升到此级所需累计经验值</t>
-  </si>
-  <si>
-    <t>消耗金币，关联costloot表</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -40,9 +37,6 @@
     <t>promoteLimit</t>
   </si>
   <si>
-    <t>promoteCostId</t>
-  </si>
-  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
   </si>
   <si>
     <t>突破次数限制</t>
-  </si>
-  <si>
-    <t>消耗id</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -63,195 +54,18 @@
   <si>
     <t>int32</t>
   </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,20 +82,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,10 +95,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,9 +142,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,9 +172,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,21 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,52 +225,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,7 +252,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,25 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,18 +420,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,127 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,32 +461,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,36 +520,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -760,211 +561,209 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2112,23 +1911,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D8" sqref="D8:D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3076923076923" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="6" max="16383" width="6" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:4">
@@ -2139,7 +1938,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:6">
+    <row r="2" ht="47" customHeight="1" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2148,75 +1947,62 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="3" ht="16.15" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -2228,961 +2014,1101 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:6">
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:6">
+    </row>
+    <row r="9" ht="16.15" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="14" customHeight="1" spans="1:6">
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:6">
+    </row>
+    <row r="11" customHeight="1" spans="3:5">
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:6">
+    </row>
+    <row r="12" customHeight="1" spans="3:5">
       <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:6">
+    </row>
+    <row r="13" customHeight="1" spans="3:5">
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:6">
+    </row>
+    <row r="14" customHeight="1" spans="3:5">
       <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:6">
+    </row>
+    <row r="15" customHeight="1" spans="3:5">
       <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:6">
+    </row>
+    <row r="16" customHeight="1" spans="3:5">
       <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>829</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:6">
+        <v>794</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:5">
       <c r="C17" s="5">
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>1100</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:6">
+        <v>1081</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:5">
       <c r="C18" s="5">
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>1431</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:6">
+        <v>1547</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:5">
       <c r="C19" s="5">
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>1828</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:6">
+        <v>2107</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
       <c r="C20" s="5">
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>2297</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:6">
+        <v>2771</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="5">
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>2844</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:6">
+        <v>3548</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="5">
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>3475</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:6">
+        <v>4449</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="5">
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>4196</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:6">
+        <v>5484</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="5">
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>5013</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:6">
+        <v>6663</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:5">
       <c r="C25" s="5">
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>5932</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:6">
+        <v>7997</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:5">
       <c r="C26" s="5">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>6959</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:6">
+        <v>9497</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="5">
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>8100</v>
+        <v>11174</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="5">
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>9361</v>
+        <v>13038</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="5">
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>10748</v>
+        <v>15101</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="5">
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>12267</v>
+        <v>17373</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:5">
       <c r="C31" s="5">
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>13924</v>
+        <v>19866</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:5">
       <c r="C32" s="5">
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>15725</v>
+        <v>23273</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="5">
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>17676</v>
+        <v>26984</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="5">
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>19783</v>
+        <v>31014</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="5">
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>22052</v>
+        <v>35378</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="5">
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>24489</v>
+        <v>40090</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="5">
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>27100</v>
+        <v>45164</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="5">
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>29891</v>
+        <v>51706</v>
       </c>
       <c r="E38" s="1">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="5">
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>32868</v>
+        <v>58719</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="5">
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>36037</v>
+        <v>66221</v>
       </c>
       <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
       <c r="C41" s="5">
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>39404</v>
+        <v>74230</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
       <c r="C42" s="5">
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>42975</v>
+        <v>82764</v>
       </c>
       <c r="E42" s="1">
-        <v>3</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
       <c r="C43" s="5">
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>46756</v>
+        <v>91842</v>
       </c>
       <c r="E43" s="1">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:5">
       <c r="C44" s="5">
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>50753</v>
+        <v>101482</v>
       </c>
       <c r="E44" s="1">
-        <v>3</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:5">
       <c r="C45" s="5">
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>54972</v>
+        <v>111702</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
       <c r="C46" s="5">
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>59419</v>
+        <v>122521</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:5">
       <c r="C47" s="5">
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>64100</v>
+        <v>133958</v>
       </c>
       <c r="E47" s="1">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:5">
       <c r="C48" s="5">
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>69021</v>
+        <v>148044</v>
       </c>
       <c r="E48" s="1">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
       <c r="C49" s="5">
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>74188</v>
+        <v>162895</v>
       </c>
       <c r="E49" s="1">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:5">
       <c r="C50" s="5">
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>79607</v>
+        <v>178533</v>
       </c>
       <c r="E50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:5">
       <c r="C51" s="5">
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>85284</v>
+        <v>194980</v>
       </c>
       <c r="E51" s="1">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:5">
       <c r="C52" s="5">
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>91225</v>
+        <v>212258</v>
       </c>
       <c r="E52" s="1">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:5">
       <c r="C53" s="5">
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>97436</v>
+        <v>232981</v>
       </c>
       <c r="E53" s="1">
-        <v>4</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:5">
       <c r="C54" s="5">
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>103923</v>
+        <v>254706</v>
       </c>
       <c r="E54" s="1">
-        <v>4</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:5">
       <c r="C55" s="5">
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>110692</v>
+        <v>277458</v>
       </c>
       <c r="E55" s="1">
-        <v>4</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:5">
       <c r="C56" s="5">
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>117749</v>
+        <v>304240</v>
       </c>
       <c r="E56" s="1">
-        <v>5</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:5">
       <c r="C57" s="5">
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>125100</v>
+        <v>332237</v>
       </c>
       <c r="E57" s="1">
-        <v>5</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:5">
       <c r="C58" s="5">
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>132751</v>
+        <v>364727</v>
       </c>
       <c r="E58" s="1">
-        <v>5</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
       <c r="C59" s="5">
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>140708</v>
+        <v>398633</v>
       </c>
       <c r="E59" s="1">
-        <v>5</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:5">
       <c r="C60" s="5">
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>148977</v>
+        <v>433988</v>
       </c>
       <c r="E60" s="1">
-        <v>5</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:5">
       <c r="C61" s="5">
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>157564</v>
+        <v>470825</v>
       </c>
       <c r="E61" s="1">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:5">
       <c r="C62" s="5">
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>166475</v>
+        <v>509177</v>
       </c>
       <c r="E62" s="1">
-        <v>5</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:5">
       <c r="C63" s="5">
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>175716</v>
+        <v>549077</v>
       </c>
       <c r="E63" s="1">
-        <v>5</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:5">
       <c r="C64" s="5">
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>185293</v>
+        <v>590559</v>
       </c>
       <c r="E64" s="1">
-        <v>5</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:5">
       <c r="C65" s="5">
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>195212</v>
+        <v>633657</v>
       </c>
       <c r="E65" s="1">
-        <v>5</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:5">
       <c r="C66" s="5">
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>205479</v>
+        <v>678405</v>
       </c>
       <c r="E66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:5">
+      <c r="C67" s="5">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1">
+        <v>724836</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:5">
+      <c r="C68" s="5">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1">
+        <v>772984</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:5">
+      <c r="C69" s="5">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1">
+        <v>822884</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:5">
+      <c r="C70" s="5">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1">
+        <v>874570</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:5">
+      <c r="C71" s="5">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1">
+        <v>928076</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:5">
+      <c r="C72" s="5">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1">
+        <v>983436</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:5">
+      <c r="C73" s="5">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1040686</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:5">
+      <c r="C74" s="5">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1099859</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:5">
+      <c r="C75" s="5">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1160991</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:5">
+      <c r="C76" s="5">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1224116</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:5">
+      <c r="C77" s="5">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1289270</v>
+      </c>
+      <c r="E77" s="1">
         <v>5</v>
       </c>
-      <c r="F66" s="1" t="s">
+    </row>
+    <row r="78" customHeight="1" spans="3:5">
+      <c r="C78" s="5">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1356487</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:5">
+      <c r="C79" s="5">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1425803</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:5">
+      <c r="C80" s="5">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:3">
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" customHeight="1" spans="3:3">
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" customHeight="1" spans="3:3">
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" customHeight="1" spans="3:3">
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" customHeight="1" spans="3:3">
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" customHeight="1" spans="3:3">
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" customHeight="1" spans="3:3">
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" customHeight="1" spans="3:3">
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" customHeight="1" spans="3:3">
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" customHeight="1" spans="3:3">
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" customHeight="1" spans="3:3">
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" customHeight="1" spans="3:3">
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" customHeight="1" spans="3:3">
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" customHeight="1" spans="3:3">
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" customHeight="1" spans="3:3">
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" customHeight="1" spans="3:3">
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" customHeight="1" spans="3:3">
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" customHeight="1" spans="3:3">
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" customHeight="1" spans="3:3">
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" customHeight="1" spans="3:3">
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" customHeight="1" spans="3:3">
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" customHeight="1" spans="3:3">
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" customHeight="1" spans="3:3">
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" customHeight="1" spans="3:3">
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" customHeight="1" spans="3:3">
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" customHeight="1" spans="3:3">
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" customHeight="1" spans="3:3">
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" customHeight="1" spans="3:3">
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" customHeight="1" spans="3:3">
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" customHeight="1" spans="3:3">
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" customHeight="1" spans="3:3">
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" customHeight="1" spans="3:3">
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" customHeight="1" spans="3:3">
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" customHeight="1" spans="3:3">
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" customHeight="1" spans="3:3">
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" customHeight="1" spans="3:3">
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" customHeight="1" spans="3:3">
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" customHeight="1" spans="3:3">
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" customHeight="1" spans="3:3">
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" customHeight="1" spans="3:3">
-      <c r="C106" s="5"/>
+      <c r="D80" s="1">
+        <v>1497253</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:5">
+      <c r="C81" s="5">
+        <v>75</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1570872</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:5">
+      <c r="C82" s="5">
+        <v>76</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1646696</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:5">
+      <c r="C83" s="5">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1724760</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:5">
+      <c r="C84" s="5">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1805100</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:5">
+      <c r="C85" s="5">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1887752</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:5">
+      <c r="C86" s="5">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1972751</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:5">
+      <c r="C87" s="5">
+        <v>81</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2060134</v>
+      </c>
+      <c r="E87" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:5">
+      <c r="C88" s="5">
+        <v>82</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2149936</v>
+      </c>
+      <c r="E88" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:5">
+      <c r="C89" s="5">
+        <v>83</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2242194</v>
+      </c>
+      <c r="E89" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:5">
+      <c r="C90" s="5">
+        <v>84</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2336944</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:5">
+      <c r="C91" s="5">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2434222</v>
+      </c>
+      <c r="E91" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:5">
+      <c r="C92" s="5">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2534064</v>
+      </c>
+      <c r="E92" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:5">
+      <c r="C93" s="5">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2636507</v>
+      </c>
+      <c r="E93" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:5">
+      <c r="C94" s="5">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2741588</v>
+      </c>
+      <c r="E94" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:5">
+      <c r="C95" s="5">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2849343</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:5">
+      <c r="C96" s="5">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2959809</v>
+      </c>
+      <c r="E96" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:5">
+      <c r="C97" s="5">
+        <v>91</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3073022</v>
+      </c>
+      <c r="E97" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:5">
+      <c r="C98" s="5">
+        <v>92</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3189020</v>
+      </c>
+      <c r="E98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:5">
+      <c r="C99" s="5">
+        <v>93</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3307839</v>
+      </c>
+      <c r="E99" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:5">
+      <c r="C100" s="5">
+        <v>94</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3429517</v>
+      </c>
+      <c r="E100" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:5">
+      <c r="C101" s="5">
+        <v>95</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3554091</v>
+      </c>
+      <c r="E101" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:5">
+      <c r="C102" s="5">
+        <v>96</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3681597</v>
+      </c>
+      <c r="E102" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:5">
+      <c r="C103" s="5">
+        <v>97</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3812074</v>
+      </c>
+      <c r="E103" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:5">
+      <c r="C104" s="5">
+        <v>98</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3945558</v>
+      </c>
+      <c r="E104" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:5">
+      <c r="C105" s="5">
+        <v>99</v>
+      </c>
+      <c r="D105" s="1">
+        <v>4082087</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:5">
+      <c r="C106" s="5">
+        <v>100</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4221698</v>
+      </c>
+      <c r="E106" s="1">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/HeroLevelup.xlsx
+++ b/config/excel/HeroLevelup.xlsx
@@ -4,13 +4,45 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroLevelup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1升2所需经验</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22,7 +54,7 @@
     <t>等级</t>
   </si>
   <si>
-    <t>升到此级所需累计经验值</t>
+    <t>升到此级所需经验值</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -60,12 +92,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -80,9 +112,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,9 +165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,24 +194,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,50 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -208,9 +232,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,11 +263,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -252,49 +295,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,19 +445,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,109 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,37 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,17 +558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,151 +575,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1915,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="4"/>
@@ -2022,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>901</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2035,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>28</v>
+        <v>908</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -2048,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>52</v>
+        <v>923</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2059,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>87</v>
+        <v>952</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -2070,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>137</v>
+        <v>999</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2081,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>241</v>
+        <v>1066</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -2092,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>381</v>
+        <v>1157</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2103,7 +2146,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>563</v>
+        <v>1275</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -2114,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>794</v>
+        <v>1425</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -2125,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>1081</v>
+        <v>1608</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -2136,7 +2179,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>1547</v>
+        <v>1829</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -2147,7 +2190,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1">
-        <v>2107</v>
+        <v>2091</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -2158,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>2771</v>
+        <v>2396</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -2169,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <v>3548</v>
+        <v>2747</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -2180,7 +2223,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>4449</v>
+        <v>3149</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -2191,7 +2234,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="1">
-        <v>5484</v>
+        <v>3603</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -2202,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="1">
-        <v>6663</v>
+        <v>4113</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -2213,7 +2256,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1">
-        <v>7997</v>
+        <v>4681</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -2224,7 +2267,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>9497</v>
+        <v>5311</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -2235,7 +2278,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>11174</v>
+        <v>6005</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -2246,7 +2289,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>13038</v>
+        <v>6766</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -2257,7 +2300,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1">
-        <v>15101</v>
+        <v>7598</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2268,7 +2311,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>17373</v>
+        <v>8502</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2279,7 +2322,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>19866</v>
+        <v>9483</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2290,7 +2333,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>23273</v>
+        <v>10542</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2301,7 +2344,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>26984</v>
+        <v>11682</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2312,7 +2355,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>31014</v>
+        <v>12906</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2323,7 +2366,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>35378</v>
+        <v>14217</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2334,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>40090</v>
+        <v>15618</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2345,7 +2388,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>45164</v>
+        <v>17111</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2356,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>51706</v>
+        <v>18699</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2367,7 +2410,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>58719</v>
+        <v>20384</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2378,7 +2421,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="1">
-        <v>66221</v>
+        <v>22170</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2389,7 +2432,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>74230</v>
+        <v>24059</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2400,7 +2443,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>82764</v>
+        <v>26054</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2411,7 +2454,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="1">
-        <v>91842</v>
+        <v>28157</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2422,7 +2465,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="1">
-        <v>101482</v>
+        <v>30370</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2433,7 +2476,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="1">
-        <v>111702</v>
+        <v>32697</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2444,7 +2487,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="1">
-        <v>122521</v>
+        <v>35141</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2455,7 +2498,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>133958</v>
+        <v>37702</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -2466,7 +2509,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="1">
-        <v>148044</v>
+        <v>40386</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -2477,7 +2520,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="1">
-        <v>162895</v>
+        <v>43193</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2488,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="1">
-        <v>178533</v>
+        <v>46126</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2499,7 +2542,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="1">
-        <v>194980</v>
+        <v>49189</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -2510,7 +2553,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="1">
-        <v>212258</v>
+        <v>52383</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -2521,7 +2564,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="1">
-        <v>232981</v>
+        <v>55711</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -2532,7 +2575,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="1">
-        <v>254706</v>
+        <v>59175</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -2543,7 +2586,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>277458</v>
+        <v>62779</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -2554,7 +2597,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="1">
-        <v>304240</v>
+        <v>66524</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -2565,7 +2608,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="1">
-        <v>332237</v>
+        <v>70413</v>
       </c>
       <c r="E57" s="1">
         <v>3</v>
@@ -2576,7 +2619,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>364727</v>
+        <v>74449</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
@@ -2587,7 +2630,7 @@
         <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>398633</v>
+        <v>78634</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -2598,7 +2641,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="1">
-        <v>433988</v>
+        <v>82971</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -2609,7 +2652,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>470825</v>
+        <v>87461</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -2620,7 +2663,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>509177</v>
+        <v>92109</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
@@ -2631,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="1">
-        <v>549077</v>
+        <v>96915</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -2642,7 +2685,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="1">
-        <v>590559</v>
+        <v>101882</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -2653,7 +2696,7 @@
         <v>59</v>
       </c>
       <c r="D65" s="1">
-        <v>633657</v>
+        <v>107014</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
@@ -2664,7 +2707,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>678405</v>
+        <v>112312</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -2675,7 +2718,7 @@
         <v>61</v>
       </c>
       <c r="D67" s="1">
-        <v>724836</v>
+        <v>117778</v>
       </c>
       <c r="E67" s="1">
         <v>4</v>
@@ -2686,7 +2729,7 @@
         <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>772984</v>
+        <v>123416</v>
       </c>
       <c r="E68" s="1">
         <v>4</v>
@@ -2697,7 +2740,7 @@
         <v>63</v>
       </c>
       <c r="D69" s="1">
-        <v>822884</v>
+        <v>129227</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -2708,7 +2751,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="1">
-        <v>874570</v>
+        <v>135214</v>
       </c>
       <c r="E70" s="1">
         <v>4</v>
@@ -2719,7 +2762,7 @@
         <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>928076</v>
+        <v>141380</v>
       </c>
       <c r="E71" s="1">
         <v>4</v>
@@ -2730,7 +2773,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="1">
-        <v>983436</v>
+        <v>147727</v>
       </c>
       <c r="E72" s="1">
         <v>4</v>
@@ -2741,7 +2784,7 @@
         <v>67</v>
       </c>
       <c r="D73" s="1">
-        <v>1040686</v>
+        <v>154256</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
@@ -2752,7 +2795,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="1">
-        <v>1099859</v>
+        <v>160972</v>
       </c>
       <c r="E74" s="1">
         <v>4</v>
@@ -2763,7 +2806,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="1">
-        <v>1160991</v>
+        <v>167875</v>
       </c>
       <c r="E75" s="1">
         <v>4</v>
@@ -2774,7 +2817,7 @@
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>1224116</v>
+        <v>174969</v>
       </c>
       <c r="E76" s="1">
         <v>4</v>
@@ -2785,7 +2828,7 @@
         <v>71</v>
       </c>
       <c r="D77" s="1">
-        <v>1289270</v>
+        <v>182255</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
@@ -2796,7 +2839,7 @@
         <v>72</v>
       </c>
       <c r="D78" s="1">
-        <v>1356487</v>
+        <v>189737</v>
       </c>
       <c r="E78" s="1">
         <v>5</v>
@@ -2807,7 +2850,7 @@
         <v>73</v>
       </c>
       <c r="D79" s="1">
-        <v>1425803</v>
+        <v>197416</v>
       </c>
       <c r="E79" s="1">
         <v>5</v>
@@ -2818,7 +2861,7 @@
         <v>74</v>
       </c>
       <c r="D80" s="1">
-        <v>1497253</v>
+        <v>205295</v>
       </c>
       <c r="E80" s="1">
         <v>5</v>
@@ -2829,7 +2872,7 @@
         <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>1570872</v>
+        <v>213377</v>
       </c>
       <c r="E81" s="1">
         <v>5</v>
@@ -2840,7 +2883,7 @@
         <v>76</v>
       </c>
       <c r="D82" s="1">
-        <v>1646696</v>
+        <v>221663</v>
       </c>
       <c r="E82" s="1">
         <v>5</v>
@@ -2851,7 +2894,7 @@
         <v>77</v>
       </c>
       <c r="D83" s="1">
-        <v>1724760</v>
+        <v>230155</v>
       </c>
       <c r="E83" s="1">
         <v>5</v>
@@ -2862,7 +2905,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="1">
-        <v>1805100</v>
+        <v>238858</v>
       </c>
       <c r="E84" s="1">
         <v>5</v>
@@ -2873,7 +2916,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="1">
-        <v>1887752</v>
+        <v>247771</v>
       </c>
       <c r="E85" s="1">
         <v>5</v>
@@ -2884,7 +2927,7 @@
         <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>1972751</v>
+        <v>256899</v>
       </c>
       <c r="E86" s="1">
         <v>5</v>
@@ -2895,7 +2938,7 @@
         <v>81</v>
       </c>
       <c r="D87" s="1">
-        <v>2060134</v>
+        <v>266243</v>
       </c>
       <c r="E87" s="1">
         <v>6</v>
@@ -2906,7 +2949,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="1">
-        <v>2149936</v>
+        <v>275805</v>
       </c>
       <c r="E88" s="1">
         <v>6</v>
@@ -2917,7 +2960,7 @@
         <v>83</v>
       </c>
       <c r="D89" s="1">
-        <v>2242194</v>
+        <v>285589</v>
       </c>
       <c r="E89" s="1">
         <v>6</v>
@@ -2928,7 +2971,7 @@
         <v>84</v>
       </c>
       <c r="D90" s="1">
-        <v>2336944</v>
+        <v>295595</v>
       </c>
       <c r="E90" s="1">
         <v>6</v>
@@ -2939,7 +2982,7 @@
         <v>85</v>
       </c>
       <c r="D91" s="1">
-        <v>2434222</v>
+        <v>305828</v>
       </c>
       <c r="E91" s="1">
         <v>6</v>
@@ -2950,7 +2993,7 @@
         <v>86</v>
       </c>
       <c r="D92" s="1">
-        <v>2534064</v>
+        <v>316288</v>
       </c>
       <c r="E92" s="1">
         <v>6</v>
@@ -2961,7 +3004,7 @@
         <v>87</v>
       </c>
       <c r="D93" s="1">
-        <v>2636507</v>
+        <v>326978</v>
       </c>
       <c r="E93" s="1">
         <v>6</v>
@@ -2972,7 +3015,7 @@
         <v>88</v>
       </c>
       <c r="D94" s="1">
-        <v>2741588</v>
+        <v>337900</v>
       </c>
       <c r="E94" s="1">
         <v>6</v>
@@ -2983,7 +3026,7 @@
         <v>89</v>
       </c>
       <c r="D95" s="1">
-        <v>2849343</v>
+        <v>349058</v>
       </c>
       <c r="E95" s="1">
         <v>6</v>
@@ -2994,7 +3037,7 @@
         <v>90</v>
       </c>
       <c r="D96" s="1">
-        <v>2959809</v>
+        <v>360452</v>
       </c>
       <c r="E96" s="1">
         <v>6</v>
@@ -3005,7 +3048,7 @@
         <v>91</v>
       </c>
       <c r="D97" s="1">
-        <v>3073022</v>
+        <v>372086</v>
       </c>
       <c r="E97" s="1">
         <v>7</v>
@@ -3016,7 +3059,7 @@
         <v>92</v>
       </c>
       <c r="D98" s="1">
-        <v>3189020</v>
+        <v>383962</v>
       </c>
       <c r="E98" s="1">
         <v>7</v>
@@ -3027,7 +3070,7 @@
         <v>93</v>
       </c>
       <c r="D99" s="1">
-        <v>3307839</v>
+        <v>396081</v>
       </c>
       <c r="E99" s="1">
         <v>7</v>
@@ -3038,7 +3081,7 @@
         <v>94</v>
       </c>
       <c r="D100" s="1">
-        <v>3429517</v>
+        <v>408446</v>
       </c>
       <c r="E100" s="1">
         <v>7</v>
@@ -3049,7 +3092,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="1">
-        <v>3554091</v>
+        <v>421060</v>
       </c>
       <c r="E101" s="1">
         <v>7</v>
@@ -3060,7 +3103,7 @@
         <v>96</v>
       </c>
       <c r="D102" s="1">
-        <v>3681597</v>
+        <v>433925</v>
       </c>
       <c r="E102" s="1">
         <v>7</v>
@@ -3071,7 +3114,7 @@
         <v>97</v>
       </c>
       <c r="D103" s="1">
-        <v>3812074</v>
+        <v>447042</v>
       </c>
       <c r="E103" s="1">
         <v>7</v>
@@ -3082,7 +3125,7 @@
         <v>98</v>
       </c>
       <c r="D104" s="1">
-        <v>3945558</v>
+        <v>460415</v>
       </c>
       <c r="E104" s="1">
         <v>7</v>
@@ -3093,7 +3136,7 @@
         <v>99</v>
       </c>
       <c r="D105" s="1">
-        <v>4082087</v>
+        <v>474046</v>
       </c>
       <c r="E105" s="1">
         <v>7</v>
@@ -3104,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="D106" s="1">
-        <v>4221698</v>
+        <v>487936</v>
       </c>
       <c r="E106" s="1">
         <v>7</v>
@@ -3116,5 +3159,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>